--- a/docs/Matriz RACI.xlsx
+++ b/docs/Matriz RACI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Downloads\docs completos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Desktop\aaaaaaaaaaaaaaaaa\fast-chat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68041F0D-EAF0-4E92-828C-08B15CB89091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B122A7B6-B1FF-4268-98B7-5606209A6C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="97">
   <si>
     <t>PLANO DE AÇÃO</t>
   </si>
@@ -374,15 +374,9 @@
     <t>Todos da Equpe</t>
   </si>
   <si>
-    <t>Permitir anexo de arquivo</t>
-  </si>
-  <si>
     <t>Fazer video para entrega final</t>
   </si>
   <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
     <t>Melhorias</t>
   </si>
   <si>
@@ -453,9 +447,6 @@
   </si>
   <si>
     <t>Ativar filtro das atividades</t>
-  </si>
-  <si>
-    <t>Inserir trasmissão de arquivo no chat</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1263,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1578,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1902,7 +1893,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2268,7 +2259,7 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2557,10 +2548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2674,10 +2665,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
@@ -2685,20 +2676,22 @@
       <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12">
+        <v>44166</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2707,15 +2700,17 @@
       <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12">
+        <v>44164</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>20</v>
@@ -2726,7 +2721,7 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="12">
@@ -2739,10 +2734,10 @@
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>15</v>
@@ -2751,7 +2746,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F9" s="12">
         <v>44164</v>
@@ -2763,10 +2758,10 @@
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>15</v>
@@ -2775,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F10" s="12">
         <v>44164</v>
@@ -2787,10 +2782,10 @@
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>15</v>
@@ -2799,10 +2794,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F11" s="12">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -2811,22 +2806,22 @@
     </row>
     <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" s="12">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -2838,26 +2833,28 @@
         <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44161</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
@@ -2869,10 +2866,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="12">
-        <v>44161</v>
+        <v>12</v>
+      </c>
+      <c r="F14" s="16">
+        <v>44163</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -2881,10 +2878,10 @@
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -2893,10 +2890,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="16">
-        <v>44163</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44160</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>15</v>
@@ -2929,22 +2926,22 @@
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F17" s="12">
-        <v>44160</v>
+        <v>44151</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>13</v>
@@ -2953,13 +2950,13 @@
     </row>
     <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>28</v>
@@ -2968,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="12">
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>10</v>
@@ -3001,7 +2998,7 @@
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>10</v>
@@ -3025,7 +3022,7 @@
     </row>
     <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>10</v>
@@ -3040,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="12">
-        <v>44158</v>
+        <v>44164</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>13</v>
@@ -3049,7 +3046,7 @@
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>10</v>
@@ -3073,7 +3070,7 @@
     </row>
     <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>10</v>
@@ -3088,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="12">
-        <v>44164</v>
+        <v>44160</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
@@ -3097,7 +3094,7 @@
     </row>
     <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>10</v>
@@ -3112,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="12">
-        <v>44160</v>
+        <v>44164</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>10</v>
@@ -3136,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="12">
-        <v>44164</v>
+        <v>44158</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
@@ -3145,7 +3142,7 @@
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>10</v>
@@ -3160,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="12">
-        <v>44158</v>
+        <v>44161</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -3169,7 +3166,7 @@
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>10</v>
@@ -3193,10 +3190,10 @@
     </row>
     <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
@@ -3205,10 +3202,10 @@
         <v>28</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F28" s="12">
-        <v>44161</v>
+        <v>44155</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
@@ -3217,7 +3214,7 @@
     </row>
     <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>15</v>
@@ -3232,7 +3229,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="12">
-        <v>44155</v>
+        <v>44158</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
@@ -3241,7 +3238,7 @@
     </row>
     <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>15</v>
@@ -3256,7 +3253,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="12">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
@@ -3265,7 +3262,7 @@
     </row>
     <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>15</v>
@@ -3280,7 +3277,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="12">
-        <v>44156</v>
+        <v>44161</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="32" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>15</v>
@@ -3310,52 +3307,6 @@
         <v>13</v>
       </c>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="12">
-        <v>44161</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3364,6 +3315,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E9F516014CC74246938A4137CF0483E3" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e287fe807ff5fe2bc292e6dfd468e47c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fc65770-8e2f-4c0a-b79c-7d0363d2cfc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fae2131b9c4f564c3cf3ce20f097230c" ns2:_="">
     <xsd:import namespace="1fc65770-8e2f-4c0a-b79c-7d0363d2cfc7"/>
@@ -3521,12 +3478,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3537,6 +3488,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A4C0BD-ECE2-4369-B60A-EC28A6D2EC6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C197BE-0136-4B8D-A136-B51E55A2D42B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3554,15 +3514,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2A4C0BD-ECE2-4369-B60A-EC28A6D2EC6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D6C26A-C852-46FF-BBB7-9B87ABA77197}">
   <ds:schemaRefs>
